--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weihe/Desktop/USF/Job_Hunter/Lee_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB32C74-94DE-F044-9EC7-F625E3FD8A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4696B63-F3FC-6F48-A324-B1B06769B476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{A5A83E9F-117F-2A46-8359-013DACDFB67A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A5A83E9F-117F-2A46-8359-013DACDFB67A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="刷题记录" sheetId="1" r:id="rId1"/>
+    <sheet name="简历投递" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>题号</t>
   </si>
@@ -109,6 +110,48 @@
   </si>
   <si>
     <t>3, 1</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>二叉树与递归</t>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>10, 看答案</t>
+  </si>
+  <si>
+    <t>5, 1</t>
+  </si>
+  <si>
+    <t>60, 看答案</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>30，1</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>投递时间</t>
   </si>
 </sst>
 </file>
@@ -502,16 +545,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A2CCF7-8ED9-D542-8F95-CD6C04C2D159}">
-  <dimension ref="C3:J11"/>
+  <dimension ref="C3:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
     <col min="7" max="9" width="10.83203125" style="1"/>
     <col min="10" max="10" width="16.1640625" style="1" customWidth="1"/>
@@ -562,6 +605,9 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C5" s="5">
@@ -722,6 +768,154 @@
       </c>
       <c r="I11" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>94</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44594</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>144</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44594</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <v>145</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44594</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>105</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="3">
+        <v>44604</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>103</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3">
+        <v>44605</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>199</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="3">
+        <v>44605</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="1">
+        <v>173</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="1">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +928,39 @@
     <hyperlink ref="E9" r:id="rId6" xr:uid="{3DF46186-E202-F240-BAEC-9ABF4E3F9AF5}"/>
     <hyperlink ref="E10" r:id="rId7" xr:uid="{84DE19B7-6103-BD4A-BEA2-9E5B715216C7}"/>
     <hyperlink ref="E11" r:id="rId8" xr:uid="{F1EC1B63-D5DD-0C44-BB48-7DD0D806B20A}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{5AFBA65C-D1D6-2442-8836-812B769E23F5}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{039A16FC-D975-3F43-ADC3-157433276D8B}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{37AB3171-DE39-A246-92B5-6CF3DDF3F8FF}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{89CB8F34-86BE-8043-A2C4-DD1F2EFE95F0}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{2E6A908B-C73A-4649-8E9C-692B1A313339}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{C47BC1B7-0B12-D448-A41D-331F36AED083}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF19DE30-C8A3-3440-9CC7-CFBD475063DC}">
+  <dimension ref="E5:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weihe/Desktop/USF/Job_Hunter/Lee_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4696B63-F3FC-6F48-A324-B1B06769B476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7688D4-4F7A-364E-9D1C-48E46B684DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A5A83E9F-117F-2A46-8359-013DACDFB67A}"/>
+    <workbookView xWindow="19200" yWindow="10800" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{A5A83E9F-117F-2A46-8359-013DACDFB67A}"/>
   </bookViews>
   <sheets>
     <sheet name="刷题记录" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>题号</t>
   </si>
@@ -152,6 +152,87 @@
   </si>
   <si>
     <t>投递时间</t>
+  </si>
+  <si>
+    <t>Search in Rotated sorted array</t>
+  </si>
+  <si>
+    <t>二分法</t>
+  </si>
+  <si>
+    <t>20,1</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>Search in a Sorted Array of Unknown Size</t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>ind the Winner of the Circular Game</t>
+  </si>
+  <si>
+    <t>TikTok</t>
+  </si>
+  <si>
+    <t>Software Engineer, University Graduate - 2022 Start</t>
+  </si>
+  <si>
+    <t>方式</t>
+  </si>
+  <si>
+    <t>阿晋同学refer（TA2CCDQ）</t>
+  </si>
+  <si>
+    <t>30,3</t>
+  </si>
+  <si>
+    <t> Pinterest</t>
+  </si>
+  <si>
+    <t>paloalto</t>
+  </si>
+  <si>
+    <t>Handshake</t>
+  </si>
+  <si>
+    <t>Software Engineer in Test</t>
+  </si>
+  <si>
+    <t>University Grad Software Enigineer</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t>Software Engineer, Simulation Technology - New College Grad</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>Software Engineer - Recent College Graduate</t>
+  </si>
+  <si>
+    <t>Paypal</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>Software Engineer, University Grad</t>
+  </si>
+  <si>
+    <t>阿甘refer</t>
   </si>
 </sst>
 </file>
@@ -210,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,6 +310,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -545,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A2CCF7-8ED9-D542-8F95-CD6C04C2D159}">
-  <dimension ref="C3:J19"/>
+  <dimension ref="C3:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,10 +860,10 @@
         <v>44593</v>
       </c>
       <c r="H11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.2">
@@ -916,6 +1012,137 @@
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <v>1823</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="3">
+        <v>44612</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>160</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44612</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="3">
+        <v>44612</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>143</v>
+      </c>
+      <c r="G23" s="3">
+        <v>44612</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <v>162</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44613</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <v>658</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44613</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>702</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="3">
+        <v>44613</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -934,6 +1161,12 @@
     <hyperlink ref="E15" r:id="rId12" xr:uid="{89CB8F34-86BE-8043-A2C4-DD1F2EFE95F0}"/>
     <hyperlink ref="E17" r:id="rId13" xr:uid="{2E6A908B-C73A-4649-8E9C-692B1A313339}"/>
     <hyperlink ref="E16" r:id="rId14" xr:uid="{C47BC1B7-0B12-D448-A41D-331F36AED083}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{C0CB665C-0055-FD46-9B02-3D21A08415BA}"/>
+    <hyperlink ref="E30" r:id="rId16" xr:uid="{02D74E4E-DB3E-5F47-B75D-5893644D0137}"/>
+    <hyperlink ref="E31" r:id="rId17" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{D0CEEB87-FC63-6C4F-A76F-0FDBDDB35CD5}"/>
+    <hyperlink ref="E32" r:id="rId18" display="https://leetcode.com/problems/search-in-a-sorted-array-of-unknown-size" xr:uid="{2B6F5B19-9177-8540-B2B9-7EA9E112EE37}"/>
+    <hyperlink ref="E21" r:id="rId19" display="https://leetcode.com/problems/intersection-of-two-linked-lists" xr:uid="{708A4245-609D-E44F-8F2D-79BE70A1FEEC}"/>
+    <hyperlink ref="E20" r:id="rId20" display="https://leetcode.com/problems/find-the-winner-of-the-circular-game" xr:uid="{221A4099-3936-8349-9648-E80BEFB85CF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -941,15 +1174,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF19DE30-C8A3-3440-9CC7-CFBD475063DC}">
-  <dimension ref="E5:G5"/>
+  <dimension ref="E5:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E5" s="1" t="s">
         <v>36</v>
       </c>
@@ -959,8 +1196,100 @@
       <c r="G5" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="E6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9">
+        <v>44615</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44622</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44622</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44622</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44622</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{EBE7D4BC-87DF-DB44-A333-B456B4D6C177}"/>
+    <hyperlink ref="E7" r:id="rId2" display="https://urldefense.proofpoint.com/v2/url?u=https-3A__u20067869.ct.sendgrid.net_ls_click-3Fupn-3DTNbBMOOgSOJkXcqXRU0wfYHQ2J3GOjfRKEj62-2D2Bn4dR8kbjrhWy3QuMEhZtzRlqrH65ri-5Fyh0voY65RLBCF20nmrxcxdapqZDFxYu-2D2BSLmY883ygYzqraj2deWoyQXIqd4H-2D2B-2D2BA-2D2Foz0JKwUurTPFdErqFJldMdmT3Oj0T3E5uWtkVcPwvnHjSr2z6Kyqvd0lsi7xYtBDl0LLXixYckWxhFPEHvM1imV6VgndcaoTDfJuucEZCkAYzQvryiH0v5bG5uSv0OZ7c-2D2FylOLnUYPXfqC14CctKEg-2D3D-2D3D&amp;d=DwMFAw&amp;c=qgVugHHq3rzouXkEXdxBNQ&amp;r=AsV_2GtCTChJlHR3VICxUVtoXbXGppHlmGazDpP5DyU&amp;m=jWzAYlsAFuXRtqRu3AGvTnGDU39qRJyQxZHeFc8dEwQ9CRmAxcFw7jzxR2D_xoKz&amp;s=tPwx7ZcwO0QsRdpEcrJrNYxyZPHVexZlWhYt88TveEo&amp;e=" xr:uid="{C9FEAC6D-D082-6B4F-889D-6557D5636A1A}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{8E7BB1A2-45EF-5B4A-A17C-3C250D4FDDF4}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{1309A628-B662-B248-A4B8-DFBBF25A9DF3}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{45E9CE7E-6B28-5240-9BBC-C45F2E8F95AE}"/>
+    <hyperlink ref="F11" r:id="rId6" xr:uid="{37C35AF9-4D09-3140-ABB3-CD8F824E2DEC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weihe/Desktop/USF/Job_Hunter/Lee_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7688D4-4F7A-364E-9D1C-48E46B684DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95528BD-FF72-8B48-A170-705EB658B22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="10800" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{A5A83E9F-117F-2A46-8359-013DACDFB67A}"/>
+    <workbookView xWindow="14400" yWindow="9000" windowWidth="14400" windowHeight="9000" xr2:uid="{A5A83E9F-117F-2A46-8359-013DACDFB67A}"/>
   </bookViews>
   <sheets>
     <sheet name="刷题记录" sheetId="1" r:id="rId1"/>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A2CCF7-8ED9-D542-8F95-CD6C04C2D159}">
   <dimension ref="C3:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF19DE30-C8A3-3440-9CC7-CFBD475063DC}">
   <dimension ref="E5:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weihe/Desktop/USF/Job_Hunter/Lee_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95528BD-FF72-8B48-A170-705EB658B22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFC6AAD-07A0-9949-A878-4AABAA051D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="9000" windowWidth="14400" windowHeight="9000" xr2:uid="{A5A83E9F-117F-2A46-8359-013DACDFB67A}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="2" xr2:uid="{A5A83E9F-117F-2A46-8359-013DACDFB67A}"/>
   </bookViews>
   <sheets>
     <sheet name="刷题记录" sheetId="1" r:id="rId1"/>
-    <sheet name="简历投递" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="简历投递" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>题号</t>
   </si>
@@ -233,6 +234,63 @@
   </si>
   <si>
     <t>阿甘refer</t>
+  </si>
+  <si>
+    <t>斐波那契</t>
+  </si>
+  <si>
+    <t>roblox</t>
+  </si>
+  <si>
+    <t>Software Engineer - New Grad</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>New Grad, Software Engineer, Consumer</t>
+  </si>
+  <si>
+    <t>visa</t>
+  </si>
+  <si>
+    <t>Software Engineer - Undergrad New College Grad - Multiple Locations - 2022</t>
+  </si>
+  <si>
+    <t>Software Engineer - New Grad, Backend &amp; Infrastructure</t>
+  </si>
+  <si>
+    <t>databricks</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>TikTok, roblox</t>
+  </si>
+  <si>
+    <t>RIPPLING</t>
+  </si>
+  <si>
+    <t>Data engineer</t>
+  </si>
+  <si>
+    <t>workday</t>
+  </si>
+  <si>
+    <t>software developer engineer</t>
+  </si>
+  <si>
+    <t>asana</t>
+  </si>
+  <si>
+    <t>New Grad, Software Engineer</t>
   </si>
 </sst>
 </file>
@@ -291,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,6 +369,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A2CCF7-8ED9-D542-8F95-CD6C04C2D159}">
   <dimension ref="C3:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,6 +1142,11 @@
       </c>
       <c r="I23" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.2">
@@ -1173,11 +1237,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DB4170-C10E-A549-834F-C361E2CE1893}">
+  <dimension ref="B5:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF19DE30-C8A3-3440-9CC7-CFBD475063DC}">
-  <dimension ref="E5:H11"/>
+  <dimension ref="E1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1186,6 +1275,14 @@
     <col min="8" max="8" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="5" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E5" s="1" t="s">
         <v>36</v>
@@ -1200,22 +1297,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="5:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="E6" s="7" t="s">
+    <row r="6" spans="5:8" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="E6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>44615</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1279,6 +1376,118 @@
       </c>
       <c r="H11" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="7">
+        <v>44635</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7">
+        <v>44636</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7">
+        <v>44636</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="7">
+        <v>44637</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7">
+        <v>44641</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7">
+        <v>44642</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="7">
+        <v>44642</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="7">
+        <v>44649</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1289,6 +1498,14 @@
     <hyperlink ref="F7" r:id="rId4" xr:uid="{1309A628-B662-B248-A4B8-DFBBF25A9DF3}"/>
     <hyperlink ref="F9" r:id="rId5" xr:uid="{45E9CE7E-6B28-5240-9BBC-C45F2E8F95AE}"/>
     <hyperlink ref="F11" r:id="rId6" xr:uid="{37C35AF9-4D09-3140-ABB3-CD8F824E2DEC}"/>
+    <hyperlink ref="F12" r:id="rId7" xr:uid="{F90FA9EB-0537-804D-8AE0-9E80AC4A0C30}"/>
+    <hyperlink ref="F13" r:id="rId8" xr:uid="{E884F92E-B9F9-504D-AB9F-14D33F12212A}"/>
+    <hyperlink ref="F14" r:id="rId9" xr:uid="{CA77F267-5367-A944-980A-240CF4A84773}"/>
+    <hyperlink ref="F15" r:id="rId10" location="grnhse_app" xr:uid="{3450324E-9FCF-8247-B02B-173AB4C64DF4}"/>
+    <hyperlink ref="F16" r:id="rId11" xr:uid="{7D70645E-E150-A543-8F91-3D9CE7F54390}"/>
+    <hyperlink ref="F17" r:id="rId12" xr:uid="{3F025CC6-6E9D-E14F-A254-1E578E4584AD}"/>
+    <hyperlink ref="F18" r:id="rId13" xr:uid="{A431EE98-1DDE-324F-A957-91687386F469}"/>
+    <hyperlink ref="F19" r:id="rId14" xr:uid="{69F54C75-FFA3-7844-8EEE-790331CDBD47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weihe/Desktop/USF/Job_Hunter/Lee_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFC6AAD-07A0-9949-A878-4AABAA051D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F5E54-5A68-2E40-80DD-9BDCEF80CC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="2" xr2:uid="{A5A83E9F-117F-2A46-8359-013DACDFB67A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="91">
   <si>
     <t>题号</t>
   </si>
@@ -291,6 +291,24 @@
   </si>
   <si>
     <t>New Grad, Software Engineer</t>
+  </si>
+  <si>
+    <t>39. Combination Sum</t>
+  </si>
+  <si>
+    <t>40. Combination Sum II</t>
+  </si>
+  <si>
+    <t>78. Subsets</t>
+  </si>
+  <si>
+    <t>90. Subsets II</t>
+  </si>
+  <si>
+    <t>40，5</t>
+  </si>
+  <si>
+    <t>hippo</t>
   </si>
 </sst>
 </file>
@@ -702,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A2CCF7-8ED9-D542-8F95-CD6C04C2D159}">
   <dimension ref="C3:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,6 +1165,98 @@
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E24" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>39</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="3">
+        <v>44651</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>40</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44651</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
+        <v>78</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44651</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>90</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44651</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.2">
@@ -1231,6 +1341,10 @@
     <hyperlink ref="E32" r:id="rId18" display="https://leetcode.com/problems/search-in-a-sorted-array-of-unknown-size" xr:uid="{2B6F5B19-9177-8540-B2B9-7EA9E112EE37}"/>
     <hyperlink ref="E21" r:id="rId19" display="https://leetcode.com/problems/intersection-of-two-linked-lists" xr:uid="{708A4245-609D-E44F-8F2D-79BE70A1FEEC}"/>
     <hyperlink ref="E20" r:id="rId20" display="https://leetcode.com/problems/find-the-winner-of-the-circular-game" xr:uid="{221A4099-3936-8349-9648-E80BEFB85CF6}"/>
+    <hyperlink ref="E25" r:id="rId21" xr:uid="{FE421F85-A418-4A47-B0D9-9F01E849D9A2}"/>
+    <hyperlink ref="E26" r:id="rId22" xr:uid="{A266BB71-0B87-AB44-99C4-009148D8F5DB}"/>
+    <hyperlink ref="E27" r:id="rId23" xr:uid="{83A889E7-BBF2-D643-803A-5BC0CA3FA7E2}"/>
+    <hyperlink ref="E28" r:id="rId24" xr:uid="{BE80D7BF-BA19-254A-85D5-D3BDF5F8FC31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1263,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF19DE30-C8A3-3440-9CC7-CFBD475063DC}">
-  <dimension ref="E1:H19"/>
+  <dimension ref="E1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1488,6 +1602,20 @@
       </c>
       <c r="H19" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="7">
+        <v>44653</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1506,6 +1634,7 @@
     <hyperlink ref="F17" r:id="rId12" xr:uid="{3F025CC6-6E9D-E14F-A254-1E578E4584AD}"/>
     <hyperlink ref="F18" r:id="rId13" xr:uid="{A431EE98-1DDE-324F-A957-91687386F469}"/>
     <hyperlink ref="F19" r:id="rId14" xr:uid="{69F54C75-FFA3-7844-8EEE-790331CDBD47}"/>
+    <hyperlink ref="F20" r:id="rId15" xr:uid="{75155601-2975-F342-899C-2D19864F8682}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weihe/Desktop/USF/Job_Hunter/Lee_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F5E54-5A68-2E40-80DD-9BDCEF80CC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23C9D29-CCC4-3147-A506-CBC9DD666B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="2" xr2:uid="{A5A83E9F-117F-2A46-8359-013DACDFB67A}"/>
+    <workbookView xWindow="9600" yWindow="500" windowWidth="19200" windowHeight="17500" activeTab="2" xr2:uid="{A5A83E9F-117F-2A46-8359-013DACDFB67A}"/>
   </bookViews>
   <sheets>
     <sheet name="刷题记录" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="简历投递" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
   <si>
     <t>题号</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>hippo</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>拒</t>
   </si>
 </sst>
 </file>
@@ -1377,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF19DE30-C8A3-3440-9CC7-CFBD475063DC}">
-  <dimension ref="E1:H20"/>
+  <dimension ref="E1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1562,7 +1568,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E17" s="1" t="s">
         <v>71</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E18" s="1" t="s">
         <v>81</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E19" s="1" t="s">
         <v>83</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E20" s="1" t="s">
         <v>90</v>
       </c>
@@ -1616,6 +1622,14 @@
       </c>
       <c r="H20" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
